--- a/20160913-mnprecipitation/builds/production/data/maindata.xlsx
+++ b/20160913-mnprecipitation/builds/production/data/maindata.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1184" uniqueCount="1179">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1190" uniqueCount="1185">
   <si>
     <t>STATEID</t>
   </si>
@@ -3557,18 +3557,46 @@
   </si>
   <si>
     <t>Source: Minnesota Department of Natural Resources, Climatology Office</t>
+  </si>
+  <si>
+    <t>tab</t>
+  </si>
+  <si>
+    <t>source</t>
+  </si>
+  <si>
+    <t>description</t>
+  </si>
+  <si>
+    <t>precipitation</t>
+  </si>
+  <si>
+    <t>Weather stations by recorded precipitation and location, 2016</t>
+  </si>
+  <si>
+    <t>Minnesota Department of Natural Resources, Climatology Office</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <charset val="136"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="136"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -3592,8 +3620,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3927,8 +3956,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E887"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="C47" sqref="C47"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D47" sqref="D47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -19024,22 +19053,48 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A2"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="1" width="13.83203125" customWidth="1"/>
+    <col min="2" max="2" width="51.83203125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:3">
       <c r="A1" t="s">
         <v>1178</v>
       </c>
     </row>
-    <row r="2" spans="1:1">
+    <row r="2" spans="1:3">
       <c r="A2">
         <v>2016</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" s="1" customFormat="1">
+      <c r="A6" s="1" t="s">
+        <v>1179</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>1181</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>1180</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" t="s">
+        <v>1182</v>
+      </c>
+      <c r="B7" t="s">
+        <v>1183</v>
+      </c>
+      <c r="C7" t="s">
+        <v>1184</v>
       </c>
     </row>
   </sheetData>

--- a/20160913-mnprecipitation/builds/production/data/maindata.xlsx
+++ b/20160913-mnprecipitation/builds/production/data/maindata.xlsx
@@ -4,13 +4,14 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26330"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="18380" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="18380" tabRatio="500" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="precipitation" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
+    <sheet name="source" sheetId="2" r:id="rId2"/>
+    <sheet name="layout" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="0" concurrentCalc="0"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -20,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1190" uniqueCount="1185">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1201" uniqueCount="1190">
   <si>
     <t>STATEID</t>
   </si>
@@ -3575,19 +3576,33 @@
   </si>
   <si>
     <t>Minnesota Department of Natural Resources, Climatology Office</t>
+  </si>
+  <si>
+    <t>Weather station ID</t>
+  </si>
+  <si>
+    <t>Longitude coordinate</t>
+  </si>
+  <si>
+    <t>Latitude coordinate</t>
+  </si>
+  <si>
+    <t>Weather station name</t>
+  </si>
+  <si>
+    <t>Inches of precipitation recorded</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <charset val="136"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -3597,6 +3612,22 @@
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="136"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -3617,14 +3648,18 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="3">
+    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -3957,7 +3992,7 @@
   <dimension ref="A1:E887"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D47" sqref="D47"/>
+      <selection activeCell="E1" sqref="A1:E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -19043,6 +19078,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -19055,7 +19091,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
@@ -19105,4 +19141,72 @@
     </ext>
   </extLst>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:B7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="1" width="13.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:2">
+      <c r="A2" s="1" t="s">
+        <v>1182</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" t="s">
+        <v>1185</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" t="s">
+        <v>1186</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" t="s">
+        <v>1187</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" t="s">
+        <v>1188</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" t="s">
+        <v>1189</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
 </file>